--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1671.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1671.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.032433203319779</v>
+        <v>3.439070463180542</v>
       </c>
       <c r="B1">
-        <v>3.008615417115235</v>
+        <v>2.784838914871216</v>
       </c>
       <c r="C1">
-        <v>2.399478042031385</v>
+        <v>1.894824028015137</v>
       </c>
       <c r="D1">
-        <v>2.238770543696596</v>
+        <v>1.645299196243286</v>
       </c>
       <c r="E1">
-        <v>1.885079971116361</v>
+        <v>1.611118674278259</v>
       </c>
     </row>
   </sheetData>
